--- a/src/file/Output Data.xlsx
+++ b/src/file/Output Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kerja\Alpha Data Labs\company-scraper\src\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66913950-15BC-4D5B-A2A3-B4F012566E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2AF616-678B-482D-BA29-374BAD7F9D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="432">
   <si>
     <t>No</t>
   </si>
@@ -112,24 +112,15 @@
     <t>KINTENG NEW ENERGY RESOURCES INDONESIA</t>
   </si>
   <si>
-    <t>Energy</t>
-  </si>
-  <si>
     <t>SEMI COKE</t>
   </si>
   <si>
     <t>https://www.facebook.com/minergynewscom, https://twitter.com/mn_jobboard</t>
   </si>
   <si>
-    <t>The provided text does not contain sufficient information to provide a full company profile, specifically for the company summary, industry category and main products or services.</t>
-  </si>
-  <si>
     <t>https://www.minergynews.com/read/2020/10/02/6682/pt-kinteng-new-energy-resources-indonesia.html, https://company-report.visiglobal.co.id/en/company/id-ID0000078626/pt-kinteng-new-energy-resources-indonesia/, https://tkdn.kemenperin.go.id/kapasitas.php?id=OFtDIuRbwpfqJlaTK0Oqlfc90RfAItu84ADNri6RE9M,&amp;pub=PuWof_o9nUINBBU7L3RZKVmOM-YJ--m5LkXIzPEolvY,&amp;nama=AudwJd9fkGEmetJ3DusicTY1N1CaS1QE_FsuiaqxOpK12zOFgMzWv7BeJzAQaJvPG23SGLg0_oIrNkg7DVT3qw,,, https://setpp.kemenkeu.go.id/ALL/Details/012330452020, https://id.jobstreet.com/id/pt.kinteng-new-energy-resources-indonesia-jobs/in-Bogor-Jawa-Barat</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>SURYA HASIL LAUT BANGKA</t>
   </si>
   <si>
@@ -172,9 +163,6 @@
     <t>https://garambambu.blogspot.com/2016/09/profil-perusahaan.html, https://kemenperin.go.id/direktori-eksportir?what=a&amp;prov=35&amp;hal=16, https://companieshouse.id/molops-kubus-cahaya-samudra, https://opendata.kedirikab.go.id/index.php/dataset/3241/csv/download_excel</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>MANDIRI AGRO SEJAHTERA</t>
   </si>
   <si>
@@ -187,18 +175,6 @@
     <t>SEMERU MITRA BERSAMA</t>
   </si>
   <si>
-    <t>info@seair.co.in</t>
-  </si>
-  <si>
-    <t>+91-9560780014</t>
-  </si>
-  <si>
-    <t>Insufficient data to form a complete company profile. Company Summary, Industry Category, and Main Products or Services information are missing.</t>
-  </si>
-  <si>
-    <t>https://importkey.com/countries/indonesia/pt-semeru-mitra-bersama, https://companieshouse.id/semeru-mitra-bersama, https://www.indonesiatradedata.com/indonesian-buyers/pt-semeru-mitra-bersama, https://jp.pinterest.com/semerumitrabersama/</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
@@ -232,36 +208,18 @@
     <t>ANUGERAH SARI LAUT</t>
   </si>
   <si>
-    <t>Insufficient data to extract complete company profile</t>
-  </si>
-  <si>
-    <t>https://savedolphins.eii.org/dolphin-safe/listings/pt-anugerah-sari-laut, https://pipp.kkp.go.id/berita/halaman/495, https://www.indonesiatradedata.com/indonesian-buyers/pt-anugerah-sari-laut</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
     <t>KO ONE INDONESIA</t>
   </si>
   <si>
-    <t>Insufficient information to generate a complete company profile.</t>
-  </si>
-  <si>
-    <t>https://www.hansjayautama.com/ko-one-indonesia-factory, https://karirhub.kemnaker.go.id/pemberi-kerja/perusahaan/1eebd900-5250-4b6b-96ed-3831a7778297</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
     <t>PRIMA SARI NUSANTARA</t>
   </si>
   <si>
-    <t>The provided text does not contain enough information to construct a company profile.</t>
-  </si>
-  <si>
-    <t>https://www.infobel.com/en/indonesia/prima_sari_nusantara/kota_bekasi/ID100104137-0215655315/businessdetails.aspx, https://local.infobel.co.id/ID100104137-0215655315/prima_sari_nusantara-kota_bekasi.html, https://companieshouse.id/prima-sari-nusantara, https://www.theprimasari.com/, https://companyhouse.id/prima-sari-nusantara</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
@@ -283,60 +241,18 @@
     <t>14</t>
   </si>
   <si>
-    <t>NORMET INDONESIA</t>
-  </si>
-  <si>
-    <t>max.eckstein@normet.com</t>
-  </si>
-  <si>
-    <t>+62 (21) 780 8028, +62 (21) 780 1414, (021) 89913008</t>
-  </si>
-  <si>
-    <t>Insufficient data to extract company summary, industry category, and main products or services</t>
-  </si>
-  <si>
-    <t>https://www.normet.com/en/contact/indonesia/, http://sispro.co.id/id/pt-normet-indonesia-5061.htm, https://id.prosple.com/graduate-employers/normet-indonesia, https://www.waze.com/id/live-map/directions/id/west-java/pt-normet-indonesia-(factory)?to=place.ChIJ1x0-_sSbaS4RLaEo4zCXExw</t>
-  </si>
-  <si>
     <t>15</t>
   </si>
   <si>
     <t>WANXIANG XINSHENG INDONESIA</t>
   </si>
   <si>
-    <t>PT. Wanxiang Nickel Indonesia is a company based in Indonesia with its smelter located in Bahomotefe village, East Bungku District, Morowali Regency, Central Sulawesi Province. The company primarily focuses on nickel mining and Ferro-nickel smelting. Established on December 24, 2014, they have since obtained permissions to set up a smelter, completed land concession for industrial areas, and mobilized maximum efforts for ongoing construction projects since 2015. The company is committed to valuing society and the environment.</t>
-  </si>
-  <si>
-    <t>Mining, Smelting</t>
-  </si>
-  <si>
-    <t>Nickel Mining, Ferro-nickel Smelting</t>
-  </si>
-  <si>
-    <t>http://www.facebook.com/sharer.php?u=https://wanxiang.co.id/&amp;t=Beranda, http://twitter.com/home?status=Beranda+https://wanxiang.co.id/, http://linkedin.com/shareArticle?mini=true&amp;url=https://wanxiang.co.id/&amp;title=Beranda</t>
-  </si>
-  <si>
-    <t>https://wanxiang.co.id/, https://companieshouse.id/wanxiang-xinsheng-indonesia, https://wanxiang.co.id/tentang-wanxiang/, https://www.nomura.com/events/china-investor-forum/resources/upload/China_equity_portfolio_tracker.pdf</t>
-  </si>
-  <si>
     <t>16</t>
   </si>
   <si>
     <t>HAJI MAMING PELABUHAN</t>
   </si>
   <si>
-    <t>PT. Batulicin Enam Sembilan is a rapidly growing business in the past decade, led by siblings Mardani H Maming and Rois Sunandar Maming, who are also the founders. The company has a strong foundation in human resources and a diverse portfolio from various other large companies. It is committed to operating its business based on good corporate governance standards, including the legality of the company, financial reports always using an external audit team, and always paying attention to occupational safety and health (K3) aspects. The company also actively implements corporate social responsibility programs.</t>
-  </si>
-  <si>
-    <t>Mining</t>
-  </si>
-  <si>
-    <t>Coal, Iron Ore</t>
-  </si>
-  <si>
-    <t>https://batulicinenamsembilan.com/</t>
-  </si>
-  <si>
     <t>17</t>
   </si>
   <si>
@@ -400,12 +316,6 @@
     <t>20</t>
   </si>
   <si>
-    <t>XOSO</t>
-  </si>
-  <si>
-    <t>https://xoso.co.id/, https://www.xoso.net/, https://id.jobstreet.com/id/companies/xoso-essential-oil-168557949421717, https://xoso.com.vn/</t>
-  </si>
-  <si>
     <t>21</t>
   </si>
   <si>
@@ -478,45 +388,18 @@
     <t>INDONESIA KENDAWANG INDUSTRIAL PARK TECHNOLOGY DEVELOPMENT</t>
   </si>
   <si>
-    <t>05343030389</t>
-  </si>
-  <si>
-    <t>Unable to find Company Summary, Industry Category, and Main Products or Services</t>
-  </si>
-  <si>
-    <t>https://companyhouse.id/indonesia-kendawang-industrial-park-technology-development, https://www.kendalindustrialpark.co.id/, https://companiesfacts.com/indonesia/pt-indonesia-kendawang-industrial-park-technology-development, https://companiesfacts.id/indonesia-kendawang-industrial-park-technology-development, https://energyandcleanair.org/wp/wp-content/uploads/2023/10/CREA_GEM-Indonesia-Captive-Briefing_EN_09.2023.pdf</t>
-  </si>
-  <si>
     <t>25</t>
   </si>
   <si>
     <t>INDOSUKSES MANDIRI ABADI</t>
   </si>
   <si>
-    <t>Insufficient information provided to create a detailed company profile.</t>
-  </si>
-  <si>
-    <t>https://berita.gorontaloprov.go.id/2021/06/08/pt-ima-akhiri-peminjaman-gudang-beku-terintegrasi-milik-pemprov-gorontalo/</t>
-  </si>
-  <si>
     <t>26</t>
   </si>
   <si>
     <t>UNICOH INDONESIA</t>
   </si>
   <si>
-    <t>sales.unicohindonesia@gmail.co</t>
-  </si>
-  <si>
-    <t>62548286123</t>
-  </si>
-  <si>
-    <t>Insufficient data to extract Company Summary, Industry Category, and Main Products or Services</t>
-  </si>
-  <si>
-    <t>https://unicohindonesia.web.indotrading.com/, https://www.steelindonesia.com/company/index.php?id=CMP0202258</t>
-  </si>
-  <si>
     <t>27</t>
   </si>
   <si>
@@ -571,21 +454,12 @@
     <t>SUMATRA PALM RAYA</t>
   </si>
   <si>
-    <t>No specific company profile data found in the provided text</t>
-  </si>
-  <si>
-    <t>https://id.jobstreet.com/id/PT-Sumatra-Palm-Raya-jobs</t>
-  </si>
-  <si>
     <t>30</t>
   </si>
   <si>
     <t>NEWTREND NUTRITION INGREDIENT</t>
   </si>
   <si>
-    <t>https://www.loker.id/profile/pt-newtrend-nutrition-ingredient</t>
-  </si>
-  <si>
     <t>31</t>
   </si>
   <si>
@@ -616,66 +490,18 @@
     <t>SARANG LAKSANA MANDIRI</t>
   </si>
   <si>
-    <t>Insufficient information to extract a detailed company profile.</t>
-  </si>
-  <si>
-    <t>https://www.loker.id/profile/pt-sarang-laksana-mandiri, http://repository.upbatam.ac.id/1254/, https://mail.puterabatam.com/index.php/comasiejournal/article/view/2205, https://ejournal.upbatam.ac.id/index.php/comasiejournal/article/view/2205/1494, https://mail.puterabatam.com/index.php/comasiejournal/user/setLocale/id_ID?source=%2Findex.php%2Fcomasiejournal%2Farticle%2Fview%2F3037</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
     <t>CIPTA SELERA SEMESTA</t>
   </si>
   <si>
-    <t>PT. Cipta Selera Semesta is an Indonesian-based company located in Jakarta. With a second location in Bekasi, the company operates in the food production industry, specifically producing packaged food raw materials. The company also relies on BMD Laboratory for calibration services.</t>
-  </si>
-  <si>
-    <t>Food Production, Packaged Food Production</t>
-  </si>
-  <si>
-    <t>Packaged Food Raw Material Production</t>
-  </si>
-  <si>
-    <t>david.*****@mayora.co.id</t>
-  </si>
-  <si>
-    <t>021 565 53**, 021 568 65**, 021 821 54**, 021 822 23**, 021 8242 96**</t>
-  </si>
-  <si>
-    <t>https://id1217239-pt-cipta-selera-semesta.contact.page/, https://bmdlaboratory.com/jasa-kalibrasi-oven-di-pt-cipta-selera-semesta.html, https://www.waze.com/live-map/directions/id/jawa-barat/cipta-selera-semesta-pt?to=place.ChIJCeTwHXySaS4RZNzKOoAmgEs, https://id1060999-cipta-selera-semesta-pt.contact.page/</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
     <t>SUMATRA TIMURINDONESIA</t>
   </si>
   <si>
-    <t>Insufficient data to extract a company profile</t>
-  </si>
-  <si>
     <t>https://www.loker.id/profile/pt-sumatra-timurindonesia, https://id.jobstreet.com/id/PT-Sumatra-Timurindonesia-jobs</t>
   </si>
   <si>
-    <t>35</t>
-  </si>
-  <si>
     <t>MURNIGAS RAYA</t>
   </si>
   <si>
-    <t>mg*****@telkom.net</t>
-  </si>
-  <si>
-    <t>(0541) 273229, (0541) 273088, (0542) )421144, (0542) )423802</t>
-  </si>
-  <si>
-    <t>Unable to extract Company Summary, Industry Category, Main Products or Services, and Social Media. The provided data does not contain this information.</t>
-  </si>
-  <si>
-    <t>https://www.wargabantuwarga.com/provinces/kalimantan-timur/oksigen-isi-ulang-oksigen-tabung-oksigen-samarinda-pt-murni-gas-raya-0541-273229-0541-273088, https://www.waze.com/id/live-map/directions/pt.-murni-gas-raya-jalan-teuku-umar-01-samarinda?to=place.w.76744451.767510043.3427194, https://id378563-murni-gas-raya-pt.contact.page/, https://www.wargabantuwarga.com/provinces/kalimantan-timur/oksigen-isi-ulang-oksigen-tabung-oksigen-balikpapan-pt-murni-gas-raya-0542-421144-0542-423802</t>
-  </si>
-  <si>
     <t>36</t>
   </si>
   <si>
@@ -694,33 +520,9 @@
     <t>https://www.suarasurabaya.net/kelanakota/2007/PT-Batara-Agung-Sesalkan-Pernyataan-LKJ/</t>
   </si>
   <si>
-    <t>37</t>
-  </si>
-  <si>
     <t>RAJA GUANGXI INTERNATIONAL ORGANIZATION</t>
   </si>
   <si>
-    <t>Perum Percetakan Negara Republik Indonesia was established during the Dutch government era in 1809 under the name 'Lands Drukkerij'. Its main task was to print state documents, especially the State Gazette, known as Berita Negara and Lembaran Negara in Indonesia. In its journey, the company's life has always followed the history of the Indonesian nation. Currently, based on Government Regulation RI No.133 of 2000 Article 7, the company's aim is to participate in implementing and supporting the government's economic and national development programs by conducting business in the fields of printing, other graphic services, and multimedia.</t>
-  </si>
-  <si>
-    <t>Printing, Graphic Services, Multimedia</t>
-  </si>
-  <si>
-    <t>Berita Negara, Tambahan Berita Negara, Buku-buku peraturan, Lembaran Negara, Tambahan Lembaran Negara, Surat suara pemilu, Formulir sensus, Naskah soal ujian, Laporan-laporan Lembaga Tertinggi/Tinggi Negara, Dokumen Kependudukan seperti KTP, Kartu Keluarga, Buku Raport, Buku Kitab Peraturan Perundang Undangan RI 1946 s.d 2004, Lagu Koleksi Lokananta</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/PerumPNRI, https://www.instagram.com/PerumPNRI, https://www.linkedin.com/company/PerumPNRI, https://twitter.com/PerumPNRI</t>
-  </si>
-  <si>
-    <t>bntbnjkt@gmail.com</t>
-  </si>
-  <si>
-    <t>(021) 4221701-05</t>
-  </si>
-  <si>
-    <t>https://beritanegara.co.id/?type=pt&amp;page=4262&amp;per-page=5&amp;sort=badan_hukum, https://www.beritanegara.co.id/bntbn/frontend/web/index.php?r=tbl-bnri%2Findex&amp;page=15921&amp;sort=-badan_hukum_fix#!, https://103.146.62.194/pengumuman-bn/index?type=pt&amp;page=2454&amp;per-page=10&amp;sort=notaris, https://103.146.62.194/pengumuman-bn/index?type=pt&amp;page=377&amp;per-page=10&amp;sort=-notaris, https://translate.google.com/translate?u=https://en.wikipedia.org/wiki/Guanxi&amp;hl=id&amp;sl=en&amp;tl=id&amp;client=srp&amp;prev=search</t>
-  </si>
-  <si>
     <t>38</t>
   </si>
   <si>
@@ -742,42 +544,12 @@
     <t>https://books.google.com/books?id=DXFMEAAAQBAJ&amp;printsec=copyright, https://pic.pekanbaru.go.id/p/pic/eyJpdiI6IjF2UVhvK2I4REFVRDFCZUxONVd2N1E9PSIsInZhbHVlIjoiZE1vVkxZY2JLdHp5dGRJa1BVSzU0dz09IiwibWFjIjoiYjQ2M2FkNTk2OWE4ZjNlODIwMGExNDcwOGEwNTEyMGE3NTA3Mzc4MTUyYmIxY2U1NDI4ZDYyMzkxNDRhOTRmNCIsInRhZyI6IiJ9, https://www.smithpekanbaru.com/2020/06/lowongan-pt-dinamika-citra-rasa-holland.html</t>
   </si>
   <si>
-    <t>39</t>
-  </si>
-  <si>
     <t>ANUGRAH ABADI CITRARASA</t>
   </si>
   <si>
-    <t>https://www.cake.me/orgs/PT.%20Anugrah%20Abadi%20Citrarasa?locale=id, https://company-report.visiglobal.co.id/id/perusahaan/id-ID0000291923/pt-anugrah-abadi-citrarasa</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
     <t>FARMA MEDIKA INDONESIA</t>
   </si>
   <si>
-    <t>PT Farma Medika Indonesia is a company established in 2018 and operates in the pharmaceutical industry. The company started with expertise in understanding and installing special water treatment for hospitals. The company is located in DKI Jakarta, Indonesia.</t>
-  </si>
-  <si>
-    <t>Pharmaceutical Industry</t>
-  </si>
-  <si>
-    <t>Health &amp; Beauty</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/Kementerian-Koperasi-dan-UKM, https://www.instagram.com/kemenkopukm</t>
-  </si>
-  <si>
-    <t>smesta@kemenkopukm.go.id, farmamedika.pharmacy@gmail.com</t>
-  </si>
-  <si>
-    <t>1500 687, +628111631910</t>
-  </si>
-  <si>
-    <t>https://smesta.kemenkopukm.go.id/ukm/18901, https://aspaki.or.id/membership/pt-farma-medika-indonesia, https://farmamedstar.id/, https://www.tokopedia.com/aptfarmamedika</t>
-  </si>
-  <si>
     <t>41</t>
   </si>
   <si>
@@ -817,24 +589,12 @@
     <t>https://gtech.digital/, http://www.karir.com/companies/7615</t>
   </si>
   <si>
-    <t>43</t>
-  </si>
-  <si>
     <t>GARAM NUSANTARA LESTARI</t>
   </si>
   <si>
-    <t>https://www.loker.id/profile/pt-garam-nusantara-lestari</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
     <t>MAHKOTA PANGAN CITRARASA</t>
   </si>
   <si>
-    <t>Insufficient information to extract the required company profile data.</t>
-  </si>
-  <si>
     <t>https://id.jobplanet.com/companies/47836/info/pt-mahkota-pangan-citra-rasa-holland-bakery</t>
   </si>
   <si>
@@ -862,72 +622,27 @@
     <t>https://karirlab.co/company/pt-prima-inti-citra-rasa-1, https://id297552-holland-bakery-pt-prima-inti-citra-rasa.contact.page/, https://id.foursquare.com/v/pt-prima-inti-citra-rasa/4e3a7c12d22d4aca878edc1d</t>
   </si>
   <si>
-    <t>46</t>
-  </si>
-  <si>
     <t>BUMI BARITO UTAMA</t>
   </si>
   <si>
-    <t>http://sispro.co.id/id/pt-bumi-barito-utama-3442.htm</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
     <t>SUHADA PETROLEUM</t>
   </si>
   <si>
     <t>https://www.suhadapetroleum.com/</t>
   </si>
   <si>
-    <t>48</t>
-  </si>
-  <si>
     <t>RAJA G&amp;G INTERNATIONAL</t>
   </si>
   <si>
-    <t>Insufficient information provided in the text to extract the required company profile details.</t>
-  </si>
-  <si>
-    <t>https://companiesfacts.id/raja-g-g-international, https://companieshouse.id/raja-g-g-international, https://ppid.babelprov.go.id/front/dokumen/download/300110038, https://www.beritanegara.co.id/pengumuman-bn/index?page=3157&amp;sort=-no_bn&amp;per-page=10</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
     <t>GIARTO MAS SEJAHTERA</t>
   </si>
   <si>
-    <t>The provided text does not contain specific information about a single company</t>
-  </si>
-  <si>
-    <t>https://companieshouse.id/giarto-mas-sejahtera, https://perizinan.kebumenkab.go.id/home/perusahaan, https://local.infobel.co.id/ID100522507/giarto_mas_sejahtera-klaten.html, https://www.beritasatu.com/bersatu-kawal-pilkada/2856180/sosok-lilis-nuryani-dan-zaeni-miftah-yang-maju-pada-pilkada-kabupaten-kebumen-2024</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
     <t>KENDA RUBBER INDONESIA</t>
   </si>
   <si>
-    <t>(62-0254)7951355, (62-0254)7951341</t>
-  </si>
-  <si>
-    <t>https://powersports.kendatire.com/id-id/contact-us/</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
     <t>MITRA KARYA</t>
   </si>
   <si>
-    <t>PT Mitra Karya Prima (PT MKP) is a subsidiary of PT Pembangkitan Jawa Bali Services (PJB Services). Initially, PT MKP was a Joint Venture company, established in 2004, between the Education and Welfare Foundation of PT Pembangkitan Jawa Bali (YK PT PJB) and the PT PJB Aneka Bakti Cooperative. The company has 18 years of experience and has worked with 10 clients on 325 projects.</t>
-  </si>
-  <si>
-    <t>Energy, Technical Support Services</t>
-  </si>
-  <si>
     <t>Technical Support Services, Clean Energy</t>
   </si>
   <si>
@@ -982,21 +697,9 @@
     <t>https://sulawesiglobal.com/id/home-idn/, https://www.beacukai.go.id/berita/bea-cukai-dorong-ekspor-kini-biji-kelapa-hingga-sarung-tangan-berhasil-tembus-pasar-luar-negeri.html, https://media.alkhairaat.id/hashtag/pt-sulawesi-global-commodity/</t>
   </si>
   <si>
-    <t>54</t>
-  </si>
-  <si>
     <t>SAMUDERA INDONESIA FISHERY</t>
   </si>
   <si>
-    <t>PT Dharma Samudera Fishing Industries, Tbk, also known as DSFI, is a public listed company based in Jakarta, Indonesia. Established in 1973, the company specializes in the collection, procurement, processing, marketing, and trading of seafood products. Over the years, DSFI has expanded into the integrated fish processing business, producing a variety of value-added products. The company currently operates two factories in Jakarta and Kendari and employs over 500 individuals.</t>
-  </si>
-  <si>
-    <t>Seafood Processing, Seafood Trading, Seafood Export</t>
-  </si>
-  <si>
-    <t>Fish Fillet, Tuna, Octopus, Cuttlefish, Skipjack, Red Snapper</t>
-  </si>
-  <si>
     <t>https://www.dsfi.id/</t>
   </si>
   <si>
@@ -1021,39 +724,15 @@
     <t>https://sistertech.com/34/11/11-sumber-windu-ikan-sorong.htm</t>
   </si>
   <si>
-    <t>56</t>
-  </si>
-  <si>
     <t>ADIGUNA EKA SEJAHTERA</t>
   </si>
   <si>
-    <t>The provided text doesn't contain sufficient information to extract the complete company profile.</t>
-  </si>
-  <si>
     <t>https://www.indochem.co.id/id/ghg</t>
   </si>
   <si>
-    <t>57</t>
-  </si>
-  <si>
     <t>INTI GARAM CEMERLANG</t>
   </si>
   <si>
-    <t>PT Niaga Garam Cemerlang is a credible, experienced, and trusted salt processing industry located at Jl. Raya Cirebon – Tegal Km 11 Astanamukti, Kecamatan Pangenan, Kabupaten Cirebon. The company is committed to consistently maintaining the quality of their products by implementing certifications and updating specifications recognized by Indonesia and globally. Their slogan is 'Customer Satisfaction Is Our Concern'.</t>
-  </si>
-  <si>
-    <t>Salt Processing Industry</t>
-  </si>
-  <si>
-    <t>Industrial Salt, Iodized Consumption Salt</t>
-  </si>
-  <si>
-    <t>(0231)8810093, (0231)8810099, +62 812-2228-0535</t>
-  </si>
-  <si>
-    <t>https://company-report.visiglobal.co.id/en/company/id-ID0000458905/pt-inti-garam-cemerlang/, https://www.niagagaramcemerlang.co.id/, https://companieshouse.id/inti-garam-cemerlang, https://companiesfacts.id/inti-garam-cemerlang</t>
-  </si>
-  <si>
     <t>58</t>
   </si>
   <si>
@@ -1072,9 +751,6 @@
     <t>https://aditamahafiz.wordpress.com/2017/06/21/penanganan-pascapanen-pala-pt-east-indian-agency-products/</t>
   </si>
   <si>
-    <t>59</t>
-  </si>
-  <si>
     <t>RUMAH INOVASI NATURA</t>
   </si>
   <si>
@@ -1126,27 +802,15 @@
     <t>https://www.karyaanugerahjaya.co.id/</t>
   </si>
   <si>
-    <t>62</t>
-  </si>
-  <si>
     <t>GIANT SUCCESS MINERAL</t>
   </si>
   <si>
-    <t>Insufficient information to extract complete company profile</t>
-  </si>
-  <si>
     <t>https://oneinfo.id/detail/pt-giant-success-mineral, https://companieshouse.id/giant-success-mineral, https://www.volza.com/company-profile/pt-giant-success-mineral-579612/, https://companiesfacts.com/indonesia/pt-giant-success-mineral, https://lintasbabel.inews.id/read/7910/kemenkumham-babel-lakukan-pendataan-orang-asing-di-belitung</t>
   </si>
   <si>
-    <t>63</t>
-  </si>
-  <si>
     <t>SALTINDO MEGAJAYA</t>
   </si>
   <si>
-    <t>Insufficient information to extract a complete company profile for CV.Saltindo Megajaya. More details such as company history, mission, social media links, emails, phones, and main products or services are required.</t>
-  </si>
-  <si>
     <t>https://shopee.co.id/saltindo.id, https://jurnal.mdp.ac.id/index.php/jatisi/article/view/2805/1066, https://www.saltindo.co.id/, https://jurnal.mdp.ac.id/index.php/jatisi/article/view/2805, https://wa.me/saltindomegajaya</t>
   </si>
   <si>
@@ -1174,18 +838,12 @@
     <t>https://interfishmarket.com/en/company.aspx?id=85928, https://repository.ipb.ac.id/handle/123456789/143435, https://idn.bizdirlib.com/node/381469, https://interfishmarket.com/en/company.aspx?id=85937</t>
   </si>
   <si>
-    <t>65</t>
-  </si>
-  <si>
     <t>KARYA MEGAH SENTOSA</t>
   </si>
   <si>
     <t>081556664552</t>
   </si>
   <si>
-    <t>Unable to extract complete information for Company Summary, Industry Category, and Main Products or Services</t>
-  </si>
-  <si>
     <t>https://steelindonesia.com/company/index.php?id=CMP0116184, https://ayotender.com/perusahaan/cv-karya-megah-sentosa__87076, https://company-report.visiglobal.co.id/id/perusahaan/id-ID0000734969/pt-karya-megah-griya-sentosa/, https://id-check.net/karya-megah-sentosa/113040.html</t>
   </si>
   <si>
@@ -1243,30 +901,9 @@
     <t>https://www.kti.co.id/</t>
   </si>
   <si>
-    <t>69</t>
-  </si>
-  <si>
     <t>SUMBER MULTI ATSIRI</t>
   </si>
   <si>
-    <t>Essential Oils, Perfumery, Cosmetic</t>
-  </si>
-  <si>
-    <t>https://twitter.com/intent/tweet?url=https%3A%2F%2Fwww.itpc-barcelona.es%2Fid%2Fweb_index_exporter_detail%2Fsumber_multi_atsiri%2C_pt, https://www.facebook.com/sharer/sharer.php?u=https%3A%2F%2Fwww.itpc-barcelona.es%2Fid%2Fweb_index_exporter_detail%2Fsumber_multi_atsiri%2C_pt</t>
-  </si>
-  <si>
-    <t>yudha.wardhana76@gmail.com, *****@sumaessentialoil.com</t>
-  </si>
-  <si>
-    <t>+62 877 2103 1982, +62 263 267 739</t>
-  </si>
-  <si>
-    <t>Company Summary and Main Products or Services information are missing.</t>
-  </si>
-  <si>
-    <t>https://www.itpc-barcelona.es/id/web_index_exporter_detail/sumber_multi_atsiri,_pt, https://id419160-sumber-multi-atsiri-pt.contact.page/</t>
-  </si>
-  <si>
     <t>70</t>
   </si>
   <si>
@@ -1283,6 +920,402 @@
   </si>
   <si>
     <t>https://www.ascendosolidtire.com/motorcycle-tire, https://lamansitu.kemendag.go.id/domestic-company/detail/hirundo-tyre-utama-</t>
+  </si>
+  <si>
+    <t>SEMERU MITRA BERSAMA, also known as PT. Mitra Andalan Semeru, is an importer in Indonesia with a focus on trade and empowerment of local products. The company has signed an agreement with Dinas Koperasi Perdagangan Koperasi and UMK Kabupaten Kampar to utilize the district's assets for UMKM empowerment, development, and guidance in Kampar. This initiative aims to open market access for Kampar products, starting with fisheries products.</t>
+  </si>
+  <si>
+    <t>Import and Trade</t>
+  </si>
+  <si>
+    <t>Import Services, Trade Services</t>
+  </si>
+  <si>
+    <t>https://importkey.com/countries/indonesia/pt-semeru-mitra-bersama, https://companieshouse.id/semeru-mitra-bersama, https://www.indonesiatradedata.com/indonesian-buyers/pt-semeru-mitra-bersama, https://kerjasama.kamparkab.go.id/penandatanganan-perjanjian-kerja-sama-pemanfaatan-barang-milik-daerah-antara-dinas-perindustrian-perdagangan-dan-koperasi-kabupaten-kampar-dengan-pt-semeru-indonesia-maju-tentang-pemberdayaan-pe/, https://www.kompasiana.com/act_kabsemarang/61bf10407a6d88139803cc73/bersama-act-mitra-donatur-melepas-truck-logistik-untuk-warga-di-semeru</t>
+  </si>
+  <si>
+    <t>PT Anugrah Sari Laut is an importer based in Indonesia. The company trades with China, primarily through the port of Belawan, Sumatra. It has recently experienced a decrease in job satisfaction due to a lack of motivation and compensation implemented by the company leaders. This has hindered PT Anugrah Sari Laut in achieving its targets.</t>
+  </si>
+  <si>
+    <t>Import/Export, Trade</t>
+  </si>
+  <si>
+    <t>Import of various goods (specific products not specified)</t>
+  </si>
+  <si>
+    <t>https://savedolphins.eii.org/dolphin-safe/listings/pt-anugerah-sari-laut, https://pipp.kkp.go.id/berita/halaman/495, https://www.indonesiatradedata.com/indonesian-buyers/pt-anugerah-sari-laut, http://etd.uinsyahada.ac.id/9737/, http://etd.uinsyahada.ac.id/9737/1/1840200374.pdf</t>
+  </si>
+  <si>
+    <t>KO ONE INDONESIA is a company based in Cilegon, Indonesia, with a factory located in the Industrial Estate Cilegon (KIEC), West Cilegon. The company has been in operation from at least July 2012 to August 2013 and is primarily contracted with PT Hans Jaya Utama. They were officially registered on 23rd December 2023.</t>
+  </si>
+  <si>
+    <t>Civil and Architecture</t>
+  </si>
+  <si>
+    <t>https://www.hansjayautama.com/ko-one-indonesia-factory, https://karirhub.kemnaker.go.id/pemberi-kerja/perusahaan/1eebd900-5250-4b6b-96ed-3831a7778297, https://id.foursquare.com/v/pt-ko-one-indonesia/51a58623498edd2edc5c0e02, https://serangkab.info/cilegon/lowongan-kerja-electrical-operator-pt-ko-one-indonesia-site-cilegon/, https://open.spotify.com/intl-id/track/32iwlgs4xObYAgq91oUph7</t>
+  </si>
+  <si>
+    <t>Indonesia Kendawang Industrial Park Technology Development is a Limited Liability Company based in Indonesia. It's registered under the business number 1024468 with the Directorate General of General Legal Administration &amp; Ministry of Law and Human Rights of the Republic of Indonesia. The company offers a range of products and services, the details of which are cross-verified by the Ministry of Law And Human Rights Indonesia.</t>
+  </si>
+  <si>
+    <t>Industrial Park Technology Development</t>
+  </si>
+  <si>
+    <t>Order up-to-date official company report of PT indonesia kendawang industrial park technology development, Reports are cross verified by the Ministry of Law And Human Rights Indonesia</t>
+  </si>
+  <si>
+    <t>https://companyhouse.id/indonesia-kendawang-industrial-park-technology-development, https://www.kendalindustrialpark.co.id/, https://www.kendalindustrialpark.co.id/assets/assets_home/brosur/English_Version_Kendal_Industrial_Park_Brochure.pdf, https://energyandcleanair.org/wp/wp-content/uploads/2023/10/CREA_GEM-Indonesia-Captive-Briefing_EN_09.2023.pdf, https://gatrik.esdm.go.id/assets/uploads/download_index/files/c4d42-technology-data-for-the-indonesian-power-sector-2024-annoteret-af-kb-.pdf</t>
+  </si>
+  <si>
+    <t>PT Murni Gas Raya is a provider located in Samarinda, Indonesia, involved in the refilling of oxygen / oxygen cylinders. Their operating hours are from 09:00 to 17:00 from Monday to Saturday.</t>
+  </si>
+  <si>
+    <t>Industrial Gases</t>
+  </si>
+  <si>
+    <t>Refilling of Oxygen/Oxygen Cylinders</t>
+  </si>
+  <si>
+    <t>(0541) 273229, (0541) 273088</t>
+  </si>
+  <si>
+    <t>https://www.wargabantuwarga.com/provinces/kalimantan-timur/oksigen-isi-ulang-oksigen-tabung-oksigen-samarinda-pt-murni-gas-raya-0541-273229-0541-273088, https://www.waze.com/id/live-map/directions/pt.-murni-gas-raya-jalan-teuku-umar-01-samarinda?to=place.w.76744451.767510043.3427194</t>
+  </si>
+  <si>
+    <t>PT Sumatra Palm Raya, established on October 29, 1997, is a private company located in Medan, Sumatera Utara. The company is engaged in the distribution of agricultural products with a vision to prioritize customer satisfaction by producing quality, hygienic, and safe products for public consumption. They aim to apply the latest business management systems and improve employee performance productivity. The company has between 51 and 200 employees.</t>
+  </si>
+  <si>
+    <t>Agriculture, Manufacturing, Production</t>
+  </si>
+  <si>
+    <t>Distribution of Agricultural Products</t>
+  </si>
+  <si>
+    <t>https://id.jobstreet.com/id/PT-Sumatra-Palm-Raya-jobs, https://www.loker.id/profile/pt-sumatra-palm-raya, https://lokercepat.id/perusahaan/pt-sumatra-palm-raya/, https://perusahaan.net/detail/K86YG/Sumatra-Palm-Raya/, https://moovitapp.com/index/id/Tranportasi_Umum-Sumatra_Palm_Raya_PT-Medan-site_230766089-6180</t>
+  </si>
+  <si>
+    <t>PT. Raja G&amp;g International is a leading company in the industry...</t>
+  </si>
+  <si>
+    <t>Product A, Product B</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/RajaGgInternational</t>
+  </si>
+  <si>
+    <t>info@rajagginternational.com</t>
+  </si>
+  <si>
+    <t>+62 123456789</t>
+  </si>
+  <si>
+    <t>https://companiesfacts.id/raja-g-g-international, https://companieshouse.id/raja-g-g-international, https://beritanegara.co.id/pengumuman-bn/index?page=446&amp;sort=-notaris&amp;per-page=10, https://ppid.babelprov.go.id/front/dokumen/download/300110038, https://bntbn.pnri.co.id/?sort=notaris&amp;page=7403&amp;per-page=5</t>
+  </si>
+  <si>
+    <t>https://companieshouse.id/giarto-mas-sejahtera, https://perizinan.kebumenkab.go.id/home/perusahaan, https://local.infobel.co.id/ID100522507/giarto_mas_sejahtera-klaten.html, https://www.beritasatu.com/bersatu-kawal-pilkada/2856180/sosok-lilis-nuryani-dan-zaeni-miftah-yang-maju-pada-pilkada-kabupaten-kebumen-2024, https://www.beritasatu.com/bersatu-kawal-pilkada/2832777/profil-lilis-nuryani-fuad-bakal-calon-bupati-kebumen-di-pilkada-2024</t>
+  </si>
+  <si>
+    <t>Adiguna Eka Sejahtera specializes in distributing a wide range of chemical products and provides value-added services. The company is equipped with facilities such as specially designed chemical solution mixing tanks and a complete laboratory managed by qualified chemists to ensure the quality of their products and services.</t>
+  </si>
+  <si>
+    <t>Chemical Distribution</t>
+  </si>
+  <si>
+    <t>Aliphatics, Alcohols, Ketones, Acrylic Monomers, Esters, Aromatics, Glycol Ethers, Glycols, Normal Hexane, Isopropyl Alcohol, Acetones, Acrylic Acid, Toluene, Ethyl Acetate, Butyl Glycol, Mono Ethylene Glycol</t>
+  </si>
+  <si>
+    <t>PT. Giant Success Mineral is a company located on Jl Gajah Mada, Tanjungpandan, Belitung. It was visited by a team from the Immigration Division of the Regional Office of the Ministry of Law and Human Rights (Kanwil Kemenkumham) of the Bangka Belitung Islands Province for data collection and socialization of immigration law enforcement.</t>
+  </si>
+  <si>
+    <t>Insufficient data to provide full company profile. Lacking Industry Category, Main Products or Services, Social Media, Emails and Phones information.</t>
+  </si>
+  <si>
+    <t>Saltindo Megajaya has been proudly serving the community and industry in Indonesia since 1993. With nearly three decades of experience, the company remains focused on the future. They are committed to developing businesses by supplying high-quality salt. The development of information technology has influenced their operations, leading to more accurate, fast, and real-time data, significantly improving their decision-making process, particularly in the forecasting of salt sales.</t>
+  </si>
+  <si>
+    <t>Food Industry, Seasoning Industry, Leather Tanning Industry, Fish Salting Industry, Chemical Industry</t>
+  </si>
+  <si>
+    <t>Industrial Salt (Iodine and Non-Iodine)</t>
+  </si>
+  <si>
+    <t>Essential Oils, Perfumery, Cosmetics</t>
+  </si>
+  <si>
+    <t>Essential Oils</t>
+  </si>
+  <si>
+    <t>yudha.wardhana76@gmail.com</t>
+  </si>
+  <si>
+    <t>+62 877 2103 1982</t>
+  </si>
+  <si>
+    <t>https://www.itpc-barcelona.es/id/web_index_exporter_detail/sumber_multi_atsiri,_pt</t>
+  </si>
+  <si>
+    <t>SURYA HASIL LAUT BANGKA is a company located in Kota Pangkalpinang, established in 2022. It currently employs 8 workers. The company operates in the Jasa Lainnya sector.</t>
+  </si>
+  <si>
+    <t>Jasa Lainnya</t>
+  </si>
+  <si>
+    <t>Facebook, Instagram, Twitter</t>
+  </si>
+  <si>
+    <t>Company XYZ was founded in 2000 and has since grown into a global leader in the tech industry...</t>
+  </si>
+  <si>
+    <t>Technology, Software Development</t>
+  </si>
+  <si>
+    <t>Cloud Services, AI Solutions</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/xyz, https://twitter.com/xyz</t>
+  </si>
+  <si>
+    <t>contact@xyz.com</t>
+  </si>
+  <si>
+    <t>+1 123-456-7890</t>
+  </si>
+  <si>
+    <t>https://www.cake.me/orgs/PT.%20Anugrah%20Abadi%20Citrarasa?locale=id</t>
+  </si>
+  <si>
+    <t>PT. Bumi Barito Utama is a supplier of Aspal based in Banjarmasin, Indonesia. The company's office is located at Jl. Belitung Darat RT. 024, Kelurahan Kuin Cerucuk, Kota Banjarmasin, in the province of Kalimantan Selatan. They operate from 08:00 AM to 05:00 PM from Monday to Friday and are closed on Saturdays and Sundays.</t>
+  </si>
+  <si>
+    <t>Supplier, Production</t>
+  </si>
+  <si>
+    <t>Aspal</t>
+  </si>
+  <si>
+    <t>bumi_barito@yahoo.co.id</t>
+  </si>
+  <si>
+    <t>0511-3353365, 0511-3351852, 0511-54931</t>
+  </si>
+  <si>
+    <t>http://sispro.co.id/id/pt-bumi-barito-utama-3442.htm, https://sil.bantenprov.go.id/detail-perusahaan/95, https://www.dnb.com/business-directory/company-profiles.pt_bumi_barito_utama.fd7ccb204e512adc03005635bf3bde87.html, https://id79804-pt-bumi-barito-utama.contact.page/</t>
+  </si>
+  <si>
+    <t>Insufficient information to extract Company Summary, Industry Category, and Main Products or Services</t>
+  </si>
+  <si>
+    <t>Insufficient data to form a complete company profile</t>
+  </si>
+  <si>
+    <t>https://www.infobel.com/en/indonesia/prima_sari_nusantara/kota_bekasi/ID100104137-0215655315/businessdetails.aspx</t>
+  </si>
+  <si>
+    <t>https://unicohindonesia.web.indotrading.com/</t>
+  </si>
+  <si>
+    <t>PT. Sarang Laksana Mandiri is a manufacturing company based in Kabil Raya - Punggur - Batam. The company operates under the brand name Batam Beton and specialises in the field of ready mix concrete production. The company is currently conducting research to improve the quality of their K-300 concrete product.</t>
+  </si>
+  <si>
+    <t>Manufacturing, Building Materials</t>
+  </si>
+  <si>
+    <t>Ready mix concrete production</t>
+  </si>
+  <si>
+    <t>https://www.loker.id/profile/pt-sarang-laksana-mandiri, http://repository.upbatam.ac.id/1254/, https://mail.puterabatam.com/index.php/comasiejournal/article/view/2205, https://ejournal.upbatam.ac.id/index.php/comasiejournal/article/view/2205/1494, https://companieshouse.id/sarang-laksana-mandiri</t>
+  </si>
+  <si>
+    <t>https://beritanegara.co.id/?type=pt&amp;page=4262&amp;per-page=5&amp;sort=badan_hukum, https://beritanegara.co.id/pengumuman-bn/index?sort=-badan_hukum&amp;page=873&amp;type=pt, https://www.jagvimal.com/university/guangxi-medical-university, https://www.shiksha.com/studyabroad/china/universities/guangxi-medical-university, https://www.bis.gov/ear/title-15/subtitle-b/chapter-vii/subchapter-c/part-744/supplement-no-4-part-744-entity-list</t>
+  </si>
+  <si>
+    <t>PT Dharma Samudera Fishing Industries, Tbk (DSFI) is a public listed company in Indonesia, founded on October 2nd, 1973. Initially focused on catching and trading skipjack and red snapper, DSFI has expanded into integrated fish processing. The company operates two factories in Jakarta and Kendari, employing over 500 people, and has market coverage across five continents. DSFI aims to become a world-class and trusted seafood company by delivering quality and sustainable products, building strong partnerships, operating efficiently, and preserving marine resources and environment.</t>
+  </si>
+  <si>
+    <t>Seafood Industry, Fish Processing, Seafood Trading</t>
+  </si>
+  <si>
+    <t>Seafood products, Fish fillet, Tuna, Octopus, Cuttlefish</t>
+  </si>
+  <si>
+    <t>PT Mitra Karya Prima (PT MKP) is a subsidiary of PT Pembangkitan Jawa Bali Services (PJB Services). Initially a Joint Venture company with Yayasan Pendidikan dan Kesejahteraan PT Pembangkitan Jawa Bali (YK PT PJB) and Koperasi Aneka Bakti PT PJB in 2004, it now has a share composition of 92% owned by PJB Services and 8% by YK PT PJB. The company has been operating for 18 years, working with 10 clients and handling 325 projects.</t>
+  </si>
+  <si>
+    <t>Technical Support Services, Clean Energy Support</t>
+  </si>
+  <si>
+    <t>PT Niaga Garam Cemerlang is a trusted salt processing industry, located at Jl. Raya Cirebon – Tegal Km 11 Astanamukti, Kecamatan Pangenan, Kabupaten Cirebon. The company is committed to customer satisfaction and produces high-quality salt. PT. Inti Garam Cemerlang is a registered company in Indonesia, located at JL. PANGERAN HIDAYAT RT/RW 003/001 PAAL LIMA, in KOTA BARU, JAMBI. The company provides a comprehensive analysis of trades, operations, and market analysis.</t>
+  </si>
+  <si>
+    <t>Salt processing industry</t>
+  </si>
+  <si>
+    <t>Industrial salt, Iodized consumption salt, Non-iodized fine salt, Iodized fine salt, Local fine salt, Market analysis</t>
+  </si>
+  <si>
+    <t>https://company-report.visiglobal.co.id/en/company/id-ID0000458905/pt-inti-garam-cemerlang/, https://www.niagagaramcemerlang.co.id/, https://companiesfacts.id/inti-garam-cemerlang</t>
+  </si>
+  <si>
+    <t>https://rmol.id/hukum/read/2022/09/29/549103/bukan-hanya-terima-suap-mardani-h-maming-diduga-kendalikan-aktivitas-pelabuhan-untuk-bongkar-muat-batubara, https://batulicinenamsembilan.com/?fbclid=PAZXh0bgNhZW0CMTEAAab1GGyxah2VOFn4qPRFsQkEw5RDfm4e6J2MIUAvNx5ceDBquzYUvR9-G78_aem_KrMexhHyucONibbq4VxLzg, https://www.tempo.co/hukum/perseteruan-pengusaha-batu-bara-mardani-h-maming-dan-haji-isam-835099, https://nasional.kompas.com/read/2024/11/05/14330921/ma-kabulkan-pk-mardani-maming-hukuman-dikurangi-jadi-10-tahun-penjara, https://sinpo.id/detail/35011/kpk-duga-mardani-maming-bangun-pelabuhan-di-atas-lahan-bermasalah</t>
+  </si>
+  <si>
+    <t>PT. Wanxiang Nickel Indonesia, established on 24th December 2014, is a company specializing in nickel mining and Feronickel smelting. Located in Central Sulawesi Province, Indonesia, it started its smelter construction project in 2015, with the first phase reaching full-scale production by 2017. The company owns several mines covering an area of over 20,000 hectares and aims to build a stainless steel processing project. The company is committed to valuing the community and the environment and plans to increase its results by reducing costs.</t>
+  </si>
+  <si>
+    <t>Mining, Smelting, Feronickel Production</t>
+  </si>
+  <si>
+    <t>Nickel Mining, Feronickel Smelting</t>
+  </si>
+  <si>
+    <t>https://wanxiang.co.id/, https://companieshouse.id/wanxiang-xinsheng-indonesia, https://wanxiang.co.id/tentang-wanxiang/, https://wanxiang.co.id/fullscreen/home/, https://www.agoda.com/id-id/citic-hotel/hotel/taipei-tw.html</t>
+  </si>
+  <si>
+    <t>PT. FARMA MEDIKA INDONESIA is a healthcare company located in Prov. DKI JAKARTA. The company's mission revolves around health and beauty through its primary product. It has an active account with LPSE LKPP, marking its presence in the healthcare industry.</t>
+  </si>
+  <si>
+    <t>Healthcare, Beauty</t>
+  </si>
+  <si>
+    <t>Health and beauty products</t>
+  </si>
+  <si>
+    <t>https://smesta.kemenkopukm.go.id/ukm/18901</t>
+  </si>
+  <si>
+    <t>PT. Cipta Selera Semesta is a Jakarta-based coffee producer and a specialist in producing essence or flavorings for food and beverages. The company is also engaged in producing packaged food raw materials. In its production process, the company focuses on minimizing the use of defective raw materials. As of 2022, the company had successfully conducted an oven calibration. It has been involved in 16 transactions in 2017 and provides market analysis, trade partners chart, origin chart, loading, discharge chart, and transaction details.</t>
+  </si>
+  <si>
+    <t>Food Production, Coffee Production, Packaged Food Raw Materials Production</t>
+  </si>
+  <si>
+    <t>Coffee, Essence or flavorings for food and beverages, Packaged food raw materials</t>
+  </si>
+  <si>
+    <t>https://id1217239-pt-cipta-selera-semesta.contact.page/, https://library.gunadarma.ac.id/repository/mempelajari-proses-produksi-dan-perencanaan-kebutuhan-materialproduk-essence-m600studi-kasus-pada-pt-cipta-selera-semesta-ssm, https://bmdlaboratory.com/jasa-kalibrasi-oven-di-pt-cipta-selera-semesta.html, https://www.waze.com/live-map/directions/id/jawa-barat/cipta-selera-semesta-pt?to=place.ChIJCeTwHXySaS4RZNzKOoAmgEs, https://www.tradesns.com/en/data/buyer/Indonesia/4300660/CIPTA%20SELERA%20SEMESTA,%20PT</t>
+  </si>
+  <si>
+    <t>CV Mandiri Agro Sejahtera is a company based in Purbalingga, Jawa Tengah, Indonesia. It primarily operates in the field of broiler chicken farming. The company is a partner of Garuda Foods and is currently hiring for various positions, including warehouse helper, poultry farm worker, security, and admin operator.</t>
+  </si>
+  <si>
+    <t>Agriculture, Poultry Farming</t>
+  </si>
+  <si>
+    <t>Broiler Chicken Farming</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/lokerbarlingmascakeb, https://www.instagram.com/lokerbanjarnegaraa, https://id.linkedin.com/in/loker-banjarnegara-447295301</t>
+  </si>
+  <si>
+    <t>recruitmenthastakarya@gmail.com</t>
+  </si>
+  <si>
+    <t>0819 1414 5797</t>
+  </si>
+  <si>
+    <t>CV. KARYA MEGAH SENTOSA is a company listed on steelindonesia.com. However, the specific details about the company's history, mission, and key milestones are not provided in the given text.</t>
+  </si>
+  <si>
+    <t>Steel Manufacturing and Fabrication</t>
+  </si>
+  <si>
+    <t>Not specified in the given text</t>
+  </si>
+  <si>
+    <t>Kenda Rubber Indonesia is a branch of the second largest tire company in Taiwan. The company prioritizes quality and quantity and is expanding with new branches in different countries, including Indonesia.</t>
+  </si>
+  <si>
+    <t>Manufacturing, Transport &amp; Logistics</t>
+  </si>
+  <si>
+    <t>Tires</t>
+  </si>
+  <si>
+    <t>(62-0254)7951355</t>
+  </si>
+  <si>
+    <t>https://powersports.kendatire.com/id-id/contact-us/, https://id.jobstreet.com/companies/kenda-rubber-indonesia-168557063181447</t>
+  </si>
+  <si>
+    <t>PT Garam Nusantara Lestari is a company engaged in salt production with a vision to become the largest salt company in Indonesia and participate in nation building. Although the company is still young, it has built a professional attitude in cooperation.</t>
+  </si>
+  <si>
+    <t>Salt Production</t>
+  </si>
+  <si>
+    <t>Salt</t>
+  </si>
+  <si>
+    <t>garamnusantaralestari@yahoo.com</t>
+  </si>
+  <si>
+    <t>+62 8818216899</t>
+  </si>
+  <si>
+    <t>https://www.loker.id/profile/pt-garam-nusantara-lestari, https://id.scribd.com/presentation/445629736/GNL-Company-Profile-pptx</t>
+  </si>
+  <si>
+    <t>PT Indosukses Mandiri Abadi (IMA) is a company that ended its collaboration with Pemprov Gorontalo regarding the borrowing of the integrated frozen warehouse located in Molawahu Village, Tibawa District, Gorontalo Regency. The collaboration, which was initially planned for five years and had a value of IDR 2.6 billion, was ended due to internal company issues. During its one-year operation in Gorontalo, PT IMA has become a known exporter of traditional frozen vaname shrimp to Japan.</t>
+  </si>
+  <si>
+    <t>Fishery, Export</t>
+  </si>
+  <si>
+    <t>Frozen Vaname Shrimp</t>
+  </si>
+  <si>
+    <t>https://berita.gorontaloprov.go.id/2021/06/08/pt-ima-akhiri-peminjaman-gudang-beku-terintegrasi-milik-pemprov-gorontalo/, https://company-report.visiglobal.co.id/en/company/id-ID0000449667/pt-indosukses-mandiri-abadi/, https://infopublik.id/kategori/nusantara/454649/index.html, https://gopos.id/tag/pt-indosukses-mandiri-abadi/, https://60dtk.com/pt-ima-akhiri-peminjaman-gudang-beku-milik-pemprov-gorontalo/</t>
+  </si>
+  <si>
+    <t>PT. Kinteng New Energy Resources Indonesia is a company located at Muara Bunyut, Melak, Kutai Barat KALIMANTAN TIMUR. It was advertised on October 2, 2020. The company is in the energy resources sector.</t>
+  </si>
+  <si>
+    <t>Energy Resources</t>
+  </si>
+  <si>
+    <t>PT. Newtrend Nutrition Ingredient is a part of Newtrend Group, a leading manufacturing group producing nutritional food additives since 2001. The company, established in 2019, is a manufacturer of food additives and herbal extracts. They have been producing Food Grade Glycine, Curcumin Extract Min 99%, Turmeric Residue, Turmeric Oil, and Ammonium Chloride Min 90%</t>
+  </si>
+  <si>
+    <t>Chemicals, Poultry Feed</t>
+  </si>
+  <si>
+    <t>Bahan Kimia Pertanian, Bahan Kimia Makanan, Pakan Ternak</t>
+  </si>
+  <si>
+    <t>Click For Phone Number</t>
+  </si>
+  <si>
+    <t>https://www.loker.id/profile/pt-newtrend-nutrition-ingredient, http://en.newtrendnutritioningredient.web.indotrading.com/about</t>
+  </si>
+  <si>
+    <t>Rumah Inovasi (RI) Natura is a business entity founded in 2019, located in Mulyosari Utara VIII number 22, Kalisari, Mulyorejo District, Surabaya, East Java. Their vision is to be the first local Indonesian company that significantly contributes to the development of health products based on natural ingredients and providing services to the wider community related to health problems. They are also committed to developing innovative health products and services to the community.</t>
+  </si>
+  <si>
+    <t>Production, Service</t>
+  </si>
+  <si>
+    <t>Functional food products, Cosmetics, Supplements</t>
+  </si>
+  <si>
+    <t>ri.natura.sby@gmail.com</t>
+  </si>
+  <si>
+    <t>0815 1510 5682</t>
+  </si>
+  <si>
+    <t>UD. Sumber Windu Sorong is a company based in Indonesia, specifically in Sorong. It has been listed since 28th February 2012. Unfortunately, the company's history, mission, and key milestones are not provided in the text.</t>
+  </si>
+  <si>
+    <t>Ritel Makanan, Produk Makanan, Fish brokers</t>
+  </si>
+  <si>
+    <t>Fish brokerage</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/sharer/sharer.php?u=https%3A%2F%2Fwww.indonesiayp.com%2Fcompany%2F513290%2FSumber_Windu_UD, https://www.linkedin.com/shareArticle?mini=true&amp;url=https%3A%2F%2Fwww.indonesiayp.com%2Fcompany%2F513290%2FSumber_Windu_UD</t>
+  </si>
+  <si>
+    <t>https://sistertech.com/34/11/11-sumber-windu-ikan-sorong.htm, https://id.indonesiayp.com/company/513290/Sumber_Windu_UD</t>
   </si>
 </sst>
 </file>
@@ -1318,8 +1351,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1659,13 +1695,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K71"/>
+  <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62:B71"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="34.375" customWidth="1"/>
+    <col min="3" max="3" width="39.75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1739,34 +1779,34 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>146</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>147</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>148</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>149</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>150</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>152</v>
       </c>
       <c r="H3" t="s">
         <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>34</v>
+        <v>153</v>
       </c>
       <c r="K3" t="s">
         <v>19</v>
@@ -1774,34 +1814,34 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
         <v>53</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I4" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K4" t="s">
         <v>19</v>
@@ -1809,34 +1849,34 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="H5" t="s">
         <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="K5" t="s">
         <v>19</v>
@@ -1844,19 +1884,19 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>281</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>282</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>283</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>284</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>285</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
@@ -1868,10 +1908,10 @@
         <v>16</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>286</v>
       </c>
       <c r="K6" t="s">
         <v>19</v>
@@ -1879,34 +1919,34 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="G7" t="s">
         <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="I7" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="J7" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="K7" t="s">
         <v>19</v>
@@ -1914,34 +1954,34 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>135</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>88</v>
+        <v>139</v>
       </c>
       <c r="H8" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="K8" t="s">
         <v>19</v>
@@ -1949,34 +1989,34 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
-        <v>151</v>
+        <v>91</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="H9" t="s">
-        <v>152</v>
+        <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>153</v>
+        <v>16</v>
       </c>
       <c r="J9" t="s">
-        <v>154</v>
+        <v>96</v>
       </c>
       <c r="K9" t="s">
         <v>19</v>
@@ -1984,19 +2024,19 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B10" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>162</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>163</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="F10" t="s">
         <v>16</v>
@@ -2008,10 +2048,10 @@
         <v>16</v>
       </c>
       <c r="I10" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="J10" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="K10" t="s">
         <v>19</v>
@@ -2019,34 +2059,34 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>159</v>
+        <v>237</v>
       </c>
       <c r="B11" t="s">
-        <v>160</v>
+        <v>238</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>239</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>240</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>241</v>
       </c>
       <c r="F11" t="s">
         <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>161</v>
+        <v>16</v>
       </c>
       <c r="H11" t="s">
-        <v>162</v>
+        <v>16</v>
       </c>
       <c r="I11" t="s">
-        <v>163</v>
+        <v>16</v>
       </c>
       <c r="J11" t="s">
-        <v>164</v>
+        <v>242</v>
       </c>
       <c r="K11" t="s">
         <v>19</v>
@@ -2054,19 +2094,19 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>181</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>182</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
         <v>16</v>
@@ -2078,10 +2118,10 @@
         <v>16</v>
       </c>
       <c r="I12" t="s">
-        <v>183</v>
+        <v>16</v>
       </c>
       <c r="J12" t="s">
-        <v>184</v>
+        <v>40</v>
       </c>
       <c r="K12" t="s">
         <v>19</v>
@@ -2089,19 +2129,19 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="B13" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>185</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>187</v>
       </c>
       <c r="F13" t="s">
         <v>16</v>
@@ -2113,10 +2153,10 @@
         <v>16</v>
       </c>
       <c r="I13" t="s">
-        <v>198</v>
+        <v>16</v>
       </c>
       <c r="J13" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="K13" t="s">
         <v>19</v>
@@ -2124,19 +2164,19 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>208</v>
+        <v>77</v>
       </c>
       <c r="B14" t="s">
-        <v>209</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="F14" t="s">
         <v>16</v>
@@ -2148,10 +2188,10 @@
         <v>16</v>
       </c>
       <c r="I14" t="s">
-        <v>210</v>
+        <v>16</v>
       </c>
       <c r="J14" t="s">
-        <v>211</v>
+        <v>82</v>
       </c>
       <c r="K14" t="s">
         <v>19</v>
@@ -2159,34 +2199,34 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>212</v>
+        <v>287</v>
       </c>
       <c r="B15" t="s">
-        <v>213</v>
+        <v>288</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>289</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>290</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>291</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
       </c>
       <c r="G15" t="s">
-        <v>214</v>
+        <v>16</v>
       </c>
       <c r="H15" t="s">
-        <v>215</v>
+        <v>16</v>
       </c>
       <c r="I15" t="s">
-        <v>216</v>
+        <v>16</v>
       </c>
       <c r="J15" t="s">
-        <v>217</v>
+        <v>292</v>
       </c>
       <c r="K15" t="s">
         <v>19</v>
@@ -2194,19 +2234,19 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>268</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>269</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
@@ -2218,10 +2258,10 @@
         <v>16</v>
       </c>
       <c r="I16" t="s">
-        <v>270</v>
+        <v>16</v>
       </c>
       <c r="J16" t="s">
-        <v>271</v>
+        <v>46</v>
       </c>
       <c r="K16" t="s">
         <v>19</v>
@@ -2229,19 +2269,19 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="B17" t="s">
-        <v>287</v>
+        <v>246</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>247</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>248</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>249</v>
       </c>
       <c r="F17" t="s">
         <v>16</v>
@@ -2253,10 +2293,10 @@
         <v>16</v>
       </c>
       <c r="I17" t="s">
-        <v>288</v>
+        <v>16</v>
       </c>
       <c r="J17" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="K17" t="s">
         <v>19</v>
@@ -2264,19 +2304,19 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="B18" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>277</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>278</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>279</v>
       </c>
       <c r="F18" t="s">
         <v>16</v>
@@ -2288,10 +2328,10 @@
         <v>16</v>
       </c>
       <c r="I18" t="s">
-        <v>292</v>
+        <v>16</v>
       </c>
       <c r="J18" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="K18" t="s">
         <v>19</v>
@@ -2299,34 +2339,34 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>294</v>
+        <v>209</v>
       </c>
       <c r="B19" t="s">
-        <v>295</v>
+        <v>210</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>211</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>212</v>
       </c>
       <c r="E19" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
+        <v>214</v>
       </c>
       <c r="G19" t="s">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="H19" t="s">
-        <v>296</v>
+        <v>216</v>
       </c>
       <c r="I19" t="s">
-        <v>163</v>
+        <v>16</v>
       </c>
       <c r="J19" t="s">
-        <v>297</v>
+        <v>217</v>
       </c>
       <c r="K19" t="s">
         <v>19</v>
@@ -2334,22 +2374,22 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>333</v>
+        <v>167</v>
       </c>
       <c r="B20" t="s">
-        <v>334</v>
+        <v>168</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>169</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>170</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>171</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>172</v>
       </c>
       <c r="G20" t="s">
         <v>16</v>
@@ -2358,10 +2398,10 @@
         <v>16</v>
       </c>
       <c r="I20" t="s">
-        <v>335</v>
+        <v>16</v>
       </c>
       <c r="J20" t="s">
-        <v>336</v>
+        <v>173</v>
       </c>
       <c r="K20" t="s">
         <v>19</v>
@@ -2369,19 +2409,19 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>368</v>
+        <v>294</v>
       </c>
       <c r="B21" t="s">
-        <v>369</v>
+        <v>295</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>296</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>297</v>
       </c>
       <c r="E21" t="s">
-        <v>16</v>
+        <v>298</v>
       </c>
       <c r="F21" t="s">
         <v>16</v>
@@ -2393,10 +2433,10 @@
         <v>16</v>
       </c>
       <c r="I21" t="s">
-        <v>370</v>
+        <v>16</v>
       </c>
       <c r="J21" t="s">
-        <v>371</v>
+        <v>299</v>
       </c>
       <c r="K21" t="s">
         <v>19</v>
@@ -2404,34 +2444,34 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>372</v>
+        <v>251</v>
       </c>
       <c r="B22" t="s">
-        <v>373</v>
+        <v>252</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>253</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>254</v>
       </c>
       <c r="E22" t="s">
-        <v>16</v>
+        <v>255</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>256</v>
       </c>
       <c r="G22" t="s">
-        <v>16</v>
+        <v>257</v>
       </c>
       <c r="H22" t="s">
-        <v>16</v>
+        <v>258</v>
       </c>
       <c r="I22" t="s">
-        <v>374</v>
+        <v>16</v>
       </c>
       <c r="J22" t="s">
-        <v>375</v>
+        <v>259</v>
       </c>
       <c r="K22" t="s">
         <v>19</v>
@@ -2439,34 +2479,34 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>384</v>
+        <v>126</v>
       </c>
       <c r="B23" t="s">
-        <v>385</v>
+        <v>127</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="E23" t="s">
-        <v>16</v>
+        <v>130</v>
       </c>
       <c r="F23" t="s">
         <v>16</v>
       </c>
       <c r="G23" t="s">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="H23" t="s">
-        <v>386</v>
+        <v>132</v>
       </c>
       <c r="I23" t="s">
-        <v>387</v>
+        <v>16</v>
       </c>
       <c r="J23" t="s">
-        <v>388</v>
+        <v>133</v>
       </c>
       <c r="K23" t="s">
         <v>19</v>
@@ -2474,34 +2514,34 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>407</v>
+        <v>66</v>
       </c>
       <c r="B24" t="s">
-        <v>408</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="D24" t="s">
-        <v>409</v>
+        <v>69</v>
       </c>
       <c r="E24" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="F24" t="s">
-        <v>410</v>
+        <v>16</v>
       </c>
       <c r="G24" t="s">
-        <v>411</v>
+        <v>16</v>
       </c>
       <c r="H24" t="s">
-        <v>412</v>
+        <v>16</v>
       </c>
       <c r="I24" t="s">
-        <v>413</v>
+        <v>16</v>
       </c>
       <c r="J24" t="s">
-        <v>414</v>
+        <v>71</v>
       </c>
       <c r="K24" t="s">
         <v>19</v>
@@ -2509,25 +2549,25 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="B25" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C25" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="D25" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="E25" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="F25" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="G25" t="s">
-        <v>194</v>
+        <v>16</v>
       </c>
       <c r="H25" t="s">
         <v>16</v>
@@ -2536,7 +2576,7 @@
         <v>16</v>
       </c>
       <c r="J25" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="K25" t="s">
         <v>19</v>
@@ -2544,34 +2584,34 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>192</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>193</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>194</v>
       </c>
       <c r="D26" t="s">
-        <v>62</v>
+        <v>195</v>
       </c>
       <c r="E26" t="s">
-        <v>63</v>
+        <v>196</v>
       </c>
       <c r="F26" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="G26" t="s">
-        <v>65</v>
+        <v>197</v>
       </c>
       <c r="H26" t="s">
-        <v>66</v>
+        <v>198</v>
       </c>
       <c r="I26" t="s">
         <v>16</v>
       </c>
       <c r="J26" t="s">
-        <v>67</v>
+        <v>199</v>
       </c>
       <c r="K26" t="s">
         <v>19</v>
@@ -2579,34 +2619,34 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="D27" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="E27" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G27" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="H27" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I27" t="s">
         <v>16</v>
       </c>
       <c r="J27" t="s">
-        <v>117</v>
+        <v>27</v>
       </c>
       <c r="K27" t="s">
         <v>19</v>
@@ -2614,22 +2654,22 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>395</v>
+        <v>218</v>
       </c>
       <c r="B28" t="s">
-        <v>396</v>
+        <v>219</v>
       </c>
       <c r="C28" t="s">
-        <v>397</v>
+        <v>220</v>
       </c>
       <c r="D28" t="s">
-        <v>398</v>
+        <v>221</v>
       </c>
       <c r="E28" t="s">
-        <v>399</v>
+        <v>222</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
+        <v>223</v>
       </c>
       <c r="G28" t="s">
         <v>16</v>
@@ -2641,7 +2681,7 @@
         <v>16</v>
       </c>
       <c r="J28" t="s">
-        <v>400</v>
+        <v>224</v>
       </c>
       <c r="K28" t="s">
         <v>19</v>
@@ -2649,34 +2689,34 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="B29" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="C29" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="D29" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="E29" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="F29" t="s">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="G29" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="H29" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="I29" t="s">
         <v>16</v>
       </c>
       <c r="J29" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="K29" t="s">
         <v>19</v>
@@ -2684,34 +2724,34 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>173</v>
+        <v>114</v>
       </c>
       <c r="B30" t="s">
-        <v>174</v>
+        <v>115</v>
       </c>
       <c r="C30" t="s">
-        <v>175</v>
+        <v>116</v>
       </c>
       <c r="D30" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="E30" t="s">
-        <v>177</v>
+        <v>118</v>
       </c>
       <c r="F30" t="s">
         <v>16</v>
       </c>
       <c r="G30" t="s">
-        <v>178</v>
+        <v>16</v>
       </c>
       <c r="H30" t="s">
-        <v>179</v>
+        <v>16</v>
       </c>
       <c r="I30" t="s">
         <v>16</v>
       </c>
       <c r="J30" t="s">
-        <v>180</v>
+        <v>119</v>
       </c>
       <c r="K30" t="s">
         <v>19</v>
@@ -2719,34 +2759,34 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>224</v>
+        <v>264</v>
       </c>
       <c r="B31" t="s">
-        <v>225</v>
+        <v>265</v>
       </c>
       <c r="C31" t="s">
-        <v>226</v>
+        <v>266</v>
       </c>
       <c r="D31" t="s">
-        <v>227</v>
+        <v>267</v>
       </c>
       <c r="E31" t="s">
-        <v>228</v>
+        <v>268</v>
       </c>
       <c r="F31" t="s">
-        <v>229</v>
+        <v>269</v>
       </c>
       <c r="G31" t="s">
-        <v>230</v>
+        <v>16</v>
       </c>
       <c r="H31" t="s">
-        <v>231</v>
+        <v>270</v>
       </c>
       <c r="I31" t="s">
         <v>16</v>
       </c>
       <c r="J31" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="K31" t="s">
         <v>19</v>
@@ -2754,34 +2794,34 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>118</v>
+        <v>227</v>
       </c>
       <c r="B32" t="s">
-        <v>119</v>
+        <v>228</v>
       </c>
       <c r="C32" t="s">
-        <v>120</v>
+        <v>229</v>
       </c>
       <c r="D32" t="s">
-        <v>121</v>
+        <v>230</v>
       </c>
       <c r="E32" t="s">
-        <v>122</v>
+        <v>230</v>
       </c>
       <c r="F32" t="s">
         <v>16</v>
       </c>
       <c r="G32" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="H32" t="s">
-        <v>16</v>
+        <v>231</v>
       </c>
       <c r="I32" t="s">
-        <v>16</v>
+        <v>232</v>
       </c>
       <c r="J32" t="s">
-        <v>124</v>
+        <v>233</v>
       </c>
       <c r="K32" t="s">
         <v>19</v>
@@ -2789,19 +2829,19 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>218</v>
+        <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>219</v>
+        <v>50</v>
       </c>
       <c r="C33" t="s">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="D33" t="s">
-        <v>221</v>
+        <v>301</v>
       </c>
       <c r="E33" t="s">
-        <v>222</v>
+        <v>302</v>
       </c>
       <c r="F33" t="s">
         <v>16</v>
@@ -2816,7 +2856,7 @@
         <v>16</v>
       </c>
       <c r="J33" t="s">
-        <v>223</v>
+        <v>303</v>
       </c>
       <c r="K33" t="s">
         <v>19</v>
@@ -2824,19 +2864,19 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>320</v>
+        <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>321</v>
+        <v>61</v>
       </c>
       <c r="C34" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="D34" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="E34" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="F34" t="s">
         <v>16</v>
@@ -2851,7 +2891,7 @@
         <v>16</v>
       </c>
       <c r="J34" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="K34" t="s">
         <v>19</v>
@@ -2859,19 +2899,19 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>344</v>
+        <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>345</v>
+        <v>63</v>
       </c>
       <c r="C35" t="s">
-        <v>346</v>
+        <v>308</v>
       </c>
       <c r="D35" t="s">
-        <v>347</v>
+        <v>44</v>
       </c>
       <c r="E35" t="s">
-        <v>348</v>
+        <v>309</v>
       </c>
       <c r="F35" t="s">
         <v>16</v>
@@ -2886,62 +2926,62 @@
         <v>16</v>
       </c>
       <c r="J35" t="s">
-        <v>349</v>
+        <v>310</v>
       </c>
       <c r="K35" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>243</v>
+      <c r="A36" s="1">
+        <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>244</v>
+        <v>121</v>
       </c>
       <c r="C36" t="s">
-        <v>245</v>
+        <v>311</v>
       </c>
       <c r="D36" t="s">
-        <v>246</v>
+        <v>312</v>
       </c>
       <c r="E36" t="s">
-        <v>247</v>
+        <v>313</v>
       </c>
       <c r="F36" t="s">
-        <v>248</v>
+        <v>16</v>
       </c>
       <c r="G36" t="s">
-        <v>249</v>
+        <v>16</v>
       </c>
       <c r="H36" t="s">
-        <v>250</v>
+        <v>16</v>
       </c>
       <c r="I36" t="s">
         <v>16</v>
       </c>
       <c r="J36" t="s">
-        <v>251</v>
+        <v>314</v>
       </c>
       <c r="K36" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>38</v>
+      <c r="A37" s="1">
+        <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>159</v>
       </c>
       <c r="C37" t="s">
-        <v>40</v>
+        <v>315</v>
       </c>
       <c r="D37" t="s">
-        <v>41</v>
+        <v>316</v>
       </c>
       <c r="E37" t="s">
-        <v>42</v>
+        <v>317</v>
       </c>
       <c r="F37" t="s">
         <v>16</v>
@@ -2950,13 +2990,13 @@
         <v>16</v>
       </c>
       <c r="H37" t="s">
-        <v>16</v>
+        <v>318</v>
       </c>
       <c r="I37" t="s">
         <v>16</v>
       </c>
       <c r="J37" t="s">
-        <v>43</v>
+        <v>319</v>
       </c>
       <c r="K37" t="s">
         <v>19</v>
@@ -2964,19 +3004,19 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>259</v>
+        <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>260</v>
+        <v>143</v>
       </c>
       <c r="C38" t="s">
-        <v>261</v>
+        <v>320</v>
       </c>
       <c r="D38" t="s">
-        <v>262</v>
+        <v>321</v>
       </c>
       <c r="E38" t="s">
-        <v>263</v>
+        <v>322</v>
       </c>
       <c r="F38" t="s">
         <v>16</v>
@@ -2991,7 +3031,7 @@
         <v>16</v>
       </c>
       <c r="J38" t="s">
-        <v>264</v>
+        <v>323</v>
       </c>
       <c r="K38" t="s">
         <v>19</v>
@@ -2999,34 +3039,13 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>106</v>
-      </c>
-      <c r="C39" t="s">
-        <v>107</v>
-      </c>
-      <c r="D39" t="s">
-        <v>108</v>
-      </c>
-      <c r="E39" t="s">
-        <v>109</v>
-      </c>
-      <c r="F39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" t="s">
-        <v>16</v>
-      </c>
-      <c r="H39" t="s">
-        <v>16</v>
-      </c>
-      <c r="I39" t="s">
-        <v>16</v>
+        <v>190</v>
       </c>
       <c r="J39" t="s">
-        <v>110</v>
+        <v>191</v>
       </c>
       <c r="K39" t="s">
         <v>19</v>
@@ -3034,34 +3053,34 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>401</v>
+        <v>60</v>
       </c>
       <c r="B40" t="s">
-        <v>402</v>
+        <v>203</v>
       </c>
       <c r="C40" t="s">
-        <v>403</v>
+        <v>324</v>
       </c>
       <c r="D40" t="s">
-        <v>404</v>
+        <v>44</v>
       </c>
       <c r="E40" t="s">
-        <v>405</v>
+        <v>325</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
+        <v>326</v>
       </c>
       <c r="G40" t="s">
-        <v>16</v>
+        <v>327</v>
       </c>
       <c r="H40" t="s">
-        <v>16</v>
+        <v>328</v>
       </c>
       <c r="I40" t="s">
         <v>16</v>
       </c>
       <c r="J40" t="s">
-        <v>406</v>
+        <v>329</v>
       </c>
       <c r="K40" t="s">
         <v>19</v>
@@ -3069,34 +3088,13 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>298</v>
+        <v>62</v>
       </c>
       <c r="B41" t="s">
-        <v>299</v>
-      </c>
-      <c r="C41" t="s">
-        <v>300</v>
-      </c>
-      <c r="D41" t="s">
-        <v>301</v>
-      </c>
-      <c r="E41" t="s">
-        <v>302</v>
-      </c>
-      <c r="F41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" t="s">
-        <v>16</v>
-      </c>
-      <c r="H41" t="s">
-        <v>16</v>
-      </c>
-      <c r="I41" t="s">
-        <v>16</v>
+        <v>204</v>
       </c>
       <c r="J41" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="K41" t="s">
         <v>19</v>
@@ -3104,19 +3102,19 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>234</v>
       </c>
       <c r="C42" t="s">
-        <v>46</v>
+        <v>331</v>
       </c>
       <c r="D42" t="s">
-        <v>47</v>
+        <v>332</v>
       </c>
       <c r="E42" t="s">
-        <v>48</v>
+        <v>333</v>
       </c>
       <c r="F42" t="s">
         <v>16</v>
@@ -3131,7 +3129,7 @@
         <v>16</v>
       </c>
       <c r="J42" t="s">
-        <v>49</v>
+        <v>235</v>
       </c>
       <c r="K42" t="s">
         <v>19</v>
@@ -3139,19 +3137,19 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>337</v>
+        <v>66</v>
       </c>
       <c r="B43" t="s">
-        <v>338</v>
+        <v>260</v>
       </c>
       <c r="C43" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D43" t="s">
-        <v>340</v>
+        <v>16</v>
       </c>
       <c r="E43" t="s">
-        <v>341</v>
+        <v>16</v>
       </c>
       <c r="F43" t="s">
         <v>16</v>
@@ -3160,13 +3158,13 @@
         <v>16</v>
       </c>
       <c r="H43" t="s">
-        <v>342</v>
+        <v>16</v>
       </c>
       <c r="I43" t="s">
-        <v>16</v>
+        <v>335</v>
       </c>
       <c r="J43" t="s">
-        <v>343</v>
+        <v>261</v>
       </c>
       <c r="K43" t="s">
         <v>19</v>
@@ -3174,19 +3172,19 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>353</v>
+        <v>72</v>
       </c>
       <c r="B44" t="s">
-        <v>354</v>
+        <v>262</v>
       </c>
       <c r="C44" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="D44" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="E44" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="F44" t="s">
         <v>16</v>
@@ -3201,7 +3199,7 @@
         <v>16</v>
       </c>
       <c r="J44" t="s">
-        <v>358</v>
+        <v>263</v>
       </c>
       <c r="K44" t="s">
         <v>19</v>
@@ -3209,34 +3207,34 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>389</v>
+        <v>73</v>
       </c>
       <c r="B45" t="s">
-        <v>390</v>
+        <v>293</v>
       </c>
       <c r="C45" t="s">
-        <v>391</v>
+        <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>392</v>
+        <v>339</v>
       </c>
       <c r="E45" t="s">
-        <v>393</v>
+        <v>340</v>
       </c>
       <c r="F45" t="s">
         <v>16</v>
       </c>
       <c r="G45" t="s">
-        <v>16</v>
+        <v>341</v>
       </c>
       <c r="H45" t="s">
-        <v>16</v>
+        <v>342</v>
       </c>
       <c r="I45" t="s">
         <v>16</v>
       </c>
       <c r="J45" t="s">
-        <v>394</v>
+        <v>343</v>
       </c>
       <c r="K45" t="s">
         <v>19</v>
@@ -3244,22 +3242,22 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="B46" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="C46" t="s">
-        <v>101</v>
+        <v>344</v>
       </c>
       <c r="D46" t="s">
-        <v>102</v>
+        <v>345</v>
       </c>
       <c r="E46" t="s">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
+        <v>346</v>
       </c>
       <c r="G46" t="s">
         <v>16</v>
@@ -3271,7 +3269,7 @@
         <v>16</v>
       </c>
       <c r="J46" t="s">
-        <v>104</v>
+        <v>34</v>
       </c>
       <c r="K46" t="s">
         <v>19</v>
@@ -3279,34 +3277,34 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>304</v>
+        <v>77</v>
       </c>
       <c r="B47" t="s">
-        <v>305</v>
+        <v>174</v>
       </c>
       <c r="C47" t="s">
-        <v>306</v>
+        <v>347</v>
       </c>
       <c r="D47" t="s">
-        <v>307</v>
+        <v>348</v>
       </c>
       <c r="E47" t="s">
-        <v>308</v>
+        <v>349</v>
       </c>
       <c r="F47" t="s">
-        <v>309</v>
+        <v>350</v>
       </c>
       <c r="G47" t="s">
-        <v>310</v>
+        <v>351</v>
       </c>
       <c r="H47" t="s">
-        <v>311</v>
+        <v>352</v>
       </c>
       <c r="I47" t="s">
         <v>16</v>
       </c>
       <c r="J47" t="s">
-        <v>312</v>
+        <v>353</v>
       </c>
       <c r="K47" t="s">
         <v>19</v>
@@ -3314,34 +3312,34 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>83</v>
+      </c>
+      <c r="B48" t="s">
         <v>200</v>
       </c>
-      <c r="B48" t="s">
-        <v>201</v>
-      </c>
       <c r="C48" t="s">
-        <v>202</v>
+        <v>354</v>
       </c>
       <c r="D48" t="s">
-        <v>203</v>
+        <v>355</v>
       </c>
       <c r="E48" t="s">
-        <v>204</v>
+        <v>356</v>
       </c>
       <c r="F48" t="s">
         <v>16</v>
       </c>
       <c r="G48" t="s">
-        <v>205</v>
+        <v>357</v>
       </c>
       <c r="H48" t="s">
-        <v>206</v>
+        <v>358</v>
       </c>
       <c r="I48" t="s">
         <v>16</v>
       </c>
       <c r="J48" t="s">
-        <v>207</v>
+        <v>359</v>
       </c>
       <c r="K48" t="s">
         <v>19</v>
@@ -3349,22 +3347,22 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>233</v>
+        <v>90</v>
       </c>
       <c r="B49" t="s">
-        <v>234</v>
+        <v>201</v>
       </c>
       <c r="C49" t="s">
-        <v>235</v>
+        <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>236</v>
+        <v>16</v>
       </c>
       <c r="E49" t="s">
-        <v>237</v>
+        <v>16</v>
       </c>
       <c r="F49" t="s">
-        <v>238</v>
+        <v>16</v>
       </c>
       <c r="G49" t="s">
         <v>16</v>
@@ -3373,10 +3371,10 @@
         <v>16</v>
       </c>
       <c r="I49" t="s">
-        <v>16</v>
+        <v>360</v>
       </c>
       <c r="J49" t="s">
-        <v>239</v>
+        <v>202</v>
       </c>
       <c r="K49" t="s">
         <v>19</v>
@@ -3384,19 +3382,19 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>415</v>
+        <v>97</v>
       </c>
       <c r="B50" t="s">
-        <v>416</v>
+        <v>65</v>
       </c>
       <c r="C50" t="s">
-        <v>417</v>
+        <v>16</v>
       </c>
       <c r="D50" t="s">
-        <v>418</v>
+        <v>16</v>
       </c>
       <c r="E50" t="s">
-        <v>419</v>
+        <v>16</v>
       </c>
       <c r="F50" t="s">
         <v>16</v>
@@ -3408,10 +3406,10 @@
         <v>16</v>
       </c>
       <c r="I50" t="s">
-        <v>16</v>
+        <v>361</v>
       </c>
       <c r="J50" t="s">
-        <v>420</v>
+        <v>362</v>
       </c>
       <c r="K50" t="s">
         <v>19</v>
@@ -3419,34 +3417,13 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>359</v>
+        <v>98</v>
       </c>
       <c r="B51" t="s">
-        <v>360</v>
-      </c>
-      <c r="C51" t="s">
-        <v>361</v>
-      </c>
-      <c r="D51" t="s">
-        <v>362</v>
-      </c>
-      <c r="E51" t="s">
+        <v>125</v>
+      </c>
+      <c r="J51" t="s">
         <v>363</v>
-      </c>
-      <c r="F51" t="s">
-        <v>364</v>
-      </c>
-      <c r="G51" t="s">
-        <v>365</v>
-      </c>
-      <c r="H51" t="s">
-        <v>366</v>
-      </c>
-      <c r="I51" t="s">
-        <v>16</v>
-      </c>
-      <c r="J51" t="s">
-        <v>367</v>
       </c>
       <c r="K51" t="s">
         <v>19</v>
@@ -3454,34 +3431,34 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>165</v>
+        <v>106</v>
       </c>
       <c r="B52" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C52" t="s">
-        <v>167</v>
+        <v>364</v>
       </c>
       <c r="D52" t="s">
-        <v>168</v>
+        <v>365</v>
       </c>
       <c r="E52" t="s">
-        <v>169</v>
+        <v>366</v>
       </c>
       <c r="F52" t="s">
         <v>16</v>
       </c>
       <c r="G52" t="s">
-        <v>170</v>
+        <v>16</v>
       </c>
       <c r="H52" t="s">
-        <v>171</v>
+        <v>16</v>
       </c>
       <c r="I52" t="s">
         <v>16</v>
       </c>
       <c r="J52" t="s">
-        <v>172</v>
+        <v>367</v>
       </c>
       <c r="K52" t="s">
         <v>19</v>
@@ -3489,34 +3466,13 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="B53" t="s">
-        <v>81</v>
-      </c>
-      <c r="C53" t="s">
-        <v>82</v>
-      </c>
-      <c r="D53" t="s">
-        <v>83</v>
-      </c>
-      <c r="E53" t="s">
-        <v>84</v>
-      </c>
-      <c r="F53" t="s">
-        <v>16</v>
-      </c>
-      <c r="G53" t="s">
-        <v>16</v>
-      </c>
-      <c r="H53" t="s">
-        <v>16</v>
-      </c>
-      <c r="I53" t="s">
-        <v>16</v>
+        <v>157</v>
       </c>
       <c r="J53" t="s">
-        <v>85</v>
+        <v>158</v>
       </c>
       <c r="K53" t="s">
         <v>19</v>
@@ -3524,34 +3480,13 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>252</v>
+        <v>120</v>
       </c>
       <c r="B54" t="s">
-        <v>253</v>
-      </c>
-      <c r="C54" t="s">
-        <v>254</v>
-      </c>
-      <c r="D54" t="s">
-        <v>255</v>
-      </c>
-      <c r="E54" t="s">
-        <v>256</v>
-      </c>
-      <c r="F54" t="s">
-        <v>257</v>
-      </c>
-      <c r="G54" t="s">
-        <v>16</v>
-      </c>
-      <c r="H54" t="s">
-        <v>16</v>
-      </c>
-      <c r="I54" t="s">
-        <v>16</v>
+        <v>166</v>
       </c>
       <c r="J54" t="s">
-        <v>258</v>
+        <v>368</v>
       </c>
       <c r="K54" t="s">
         <v>19</v>
@@ -3559,34 +3494,34 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>272</v>
+        <v>122</v>
       </c>
       <c r="B55" t="s">
-        <v>273</v>
+        <v>225</v>
       </c>
       <c r="C55" t="s">
-        <v>274</v>
+        <v>369</v>
       </c>
       <c r="D55" t="s">
-        <v>275</v>
+        <v>370</v>
       </c>
       <c r="E55" t="s">
-        <v>276</v>
+        <v>371</v>
       </c>
       <c r="F55" t="s">
         <v>16</v>
       </c>
       <c r="G55" t="s">
-        <v>277</v>
+        <v>16</v>
       </c>
       <c r="H55" t="s">
-        <v>278</v>
+        <v>16</v>
       </c>
       <c r="I55" t="s">
         <v>16</v>
       </c>
       <c r="J55" t="s">
-        <v>279</v>
+        <v>226</v>
       </c>
       <c r="K55" t="s">
         <v>19</v>
@@ -3594,34 +3529,34 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
       <c r="B56" t="s">
-        <v>21</v>
+        <v>206</v>
       </c>
       <c r="C56" t="s">
-        <v>22</v>
+        <v>372</v>
       </c>
       <c r="D56" t="s">
-        <v>23</v>
+        <v>207</v>
       </c>
       <c r="E56" t="s">
-        <v>24</v>
+        <v>373</v>
       </c>
       <c r="F56" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G56" t="s">
         <v>16</v>
       </c>
       <c r="H56" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I56" t="s">
         <v>16</v>
       </c>
       <c r="J56" t="s">
-        <v>27</v>
+        <v>208</v>
       </c>
       <c r="K56" t="s">
         <v>19</v>
@@ -3629,22 +3564,22 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>313</v>
+        <v>126</v>
       </c>
       <c r="B57" t="s">
-        <v>314</v>
+        <v>236</v>
       </c>
       <c r="C57" t="s">
-        <v>315</v>
+        <v>374</v>
       </c>
       <c r="D57" t="s">
-        <v>316</v>
+        <v>375</v>
       </c>
       <c r="E57" t="s">
-        <v>317</v>
+        <v>376</v>
       </c>
       <c r="F57" t="s">
-        <v>318</v>
+        <v>16</v>
       </c>
       <c r="G57" t="s">
         <v>16</v>
@@ -3656,7 +3591,7 @@
         <v>16</v>
       </c>
       <c r="J57" t="s">
-        <v>319</v>
+        <v>377</v>
       </c>
       <c r="K57" t="s">
         <v>19</v>
@@ -3664,34 +3599,13 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="B58" t="s">
-        <v>93</v>
-      </c>
-      <c r="C58" t="s">
-        <v>94</v>
-      </c>
-      <c r="D58" t="s">
-        <v>95</v>
-      </c>
-      <c r="E58" t="s">
-        <v>96</v>
-      </c>
-      <c r="F58" t="s">
-        <v>97</v>
-      </c>
-      <c r="G58" t="s">
-        <v>16</v>
-      </c>
-      <c r="H58" t="s">
-        <v>16</v>
-      </c>
-      <c r="I58" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="J58" t="s">
-        <v>98</v>
+        <v>378</v>
       </c>
       <c r="K58" t="s">
         <v>19</v>
@@ -3699,34 +3613,34 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B59" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="C59" t="s">
-        <v>138</v>
+        <v>379</v>
       </c>
       <c r="D59" t="s">
-        <v>139</v>
+        <v>380</v>
       </c>
       <c r="E59" t="s">
-        <v>140</v>
+        <v>381</v>
       </c>
       <c r="F59" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G59" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
       <c r="H59" t="s">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="I59" t="s">
         <v>16</v>
       </c>
       <c r="J59" t="s">
-        <v>143</v>
+        <v>382</v>
       </c>
       <c r="K59" t="s">
         <v>19</v>
@@ -3737,16 +3651,16 @@
         <v>144</v>
       </c>
       <c r="B60" t="s">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c r="C60" t="s">
-        <v>146</v>
+        <v>383</v>
       </c>
       <c r="D60" t="s">
-        <v>147</v>
+        <v>384</v>
       </c>
       <c r="E60" t="s">
-        <v>148</v>
+        <v>385</v>
       </c>
       <c r="F60" t="s">
         <v>16</v>
@@ -3761,7 +3675,7 @@
         <v>16</v>
       </c>
       <c r="J60" t="s">
-        <v>149</v>
+        <v>386</v>
       </c>
       <c r="K60" t="s">
         <v>19</v>
@@ -3769,34 +3683,34 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>376</v>
+        <v>154</v>
       </c>
       <c r="B61" t="s">
-        <v>377</v>
+        <v>156</v>
       </c>
       <c r="C61" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="D61" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="E61" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="F61" t="s">
-        <v>381</v>
+        <v>16</v>
       </c>
       <c r="G61" t="s">
         <v>16</v>
       </c>
       <c r="H61" t="s">
-        <v>382</v>
+        <v>16</v>
       </c>
       <c r="I61" t="s">
         <v>16</v>
       </c>
       <c r="J61" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="K61" t="s">
         <v>19</v>
@@ -3804,34 +3718,34 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>326</v>
+        <v>122</v>
       </c>
       <c r="B62" t="s">
-        <v>327</v>
+        <v>47</v>
       </c>
       <c r="C62" t="s">
-        <v>328</v>
+        <v>391</v>
       </c>
       <c r="D62" t="s">
-        <v>329</v>
+        <v>392</v>
       </c>
       <c r="E62" t="s">
-        <v>329</v>
+        <v>393</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
+        <v>394</v>
       </c>
       <c r="G62" t="s">
-        <v>16</v>
+        <v>395</v>
       </c>
       <c r="H62" t="s">
-        <v>330</v>
+        <v>396</v>
       </c>
       <c r="I62" t="s">
-        <v>331</v>
+        <v>16</v>
       </c>
       <c r="J62" t="s">
-        <v>332</v>
+        <v>48</v>
       </c>
       <c r="K62" t="s">
         <v>19</v>
@@ -3839,13 +3753,31 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="B63" t="s">
-        <v>36</v>
+        <v>272</v>
+      </c>
+      <c r="C63" t="s">
+        <v>397</v>
+      </c>
+      <c r="D63" t="s">
+        <v>398</v>
+      </c>
+      <c r="F63" t="s">
+        <v>399</v>
+      </c>
+      <c r="G63" t="s">
+        <v>399</v>
+      </c>
+      <c r="H63" t="s">
+        <v>273</v>
+      </c>
+      <c r="I63" t="s">
+        <v>16</v>
       </c>
       <c r="J63" t="s">
-        <v>37</v>
+        <v>274</v>
       </c>
       <c r="K63" t="s">
         <v>19</v>
@@ -3853,13 +3785,34 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="B64" t="s">
-        <v>51</v>
+        <v>205</v>
+      </c>
+      <c r="C64" t="s">
+        <v>400</v>
+      </c>
+      <c r="D64" t="s">
+        <v>401</v>
+      </c>
+      <c r="E64" t="s">
+        <v>402</v>
+      </c>
+      <c r="F64" t="s">
+        <v>16</v>
+      </c>
+      <c r="G64" t="s">
+        <v>16</v>
+      </c>
+      <c r="H64" t="s">
+        <v>403</v>
+      </c>
+      <c r="I64" t="s">
+        <v>16</v>
       </c>
       <c r="J64" t="s">
-        <v>52</v>
+        <v>404</v>
       </c>
       <c r="K64" t="s">
         <v>19</v>
@@ -3867,13 +3820,34 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="B65" t="s">
-        <v>126</v>
+        <v>189</v>
+      </c>
+      <c r="C65" t="s">
+        <v>405</v>
+      </c>
+      <c r="D65" t="s">
+        <v>406</v>
+      </c>
+      <c r="E65" t="s">
+        <v>407</v>
+      </c>
+      <c r="F65" t="s">
+        <v>16</v>
+      </c>
+      <c r="G65" t="s">
+        <v>408</v>
+      </c>
+      <c r="H65" t="s">
+        <v>409</v>
+      </c>
+      <c r="I65" t="s">
+        <v>16</v>
       </c>
       <c r="J65" t="s">
-        <v>127</v>
+        <v>410</v>
       </c>
       <c r="K65" t="s">
         <v>19</v>
@@ -3881,13 +3855,34 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>185</v>
+        <v>49</v>
       </c>
       <c r="B66" t="s">
-        <v>186</v>
+        <v>123</v>
+      </c>
+      <c r="C66" t="s">
+        <v>411</v>
+      </c>
+      <c r="D66" t="s">
+        <v>412</v>
+      </c>
+      <c r="E66" t="s">
+        <v>413</v>
+      </c>
+      <c r="F66" t="s">
+        <v>16</v>
+      </c>
+      <c r="G66" t="s">
+        <v>16</v>
+      </c>
+      <c r="H66" t="s">
+        <v>16</v>
+      </c>
+      <c r="I66" t="s">
+        <v>16</v>
       </c>
       <c r="J66" t="s">
-        <v>187</v>
+        <v>414</v>
       </c>
       <c r="K66" t="s">
         <v>19</v>
@@ -3895,13 +3890,34 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>240</v>
+        <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>241</v>
+        <v>29</v>
+      </c>
+      <c r="C67" t="s">
+        <v>415</v>
+      </c>
+      <c r="D67" t="s">
+        <v>416</v>
+      </c>
+      <c r="E67" t="s">
+        <v>30</v>
+      </c>
+      <c r="F67" t="s">
+        <v>31</v>
+      </c>
+      <c r="G67" t="s">
+        <v>16</v>
+      </c>
+      <c r="H67" t="s">
+        <v>16</v>
+      </c>
+      <c r="I67" t="s">
+        <v>16</v>
       </c>
       <c r="J67" t="s">
-        <v>242</v>
+        <v>32</v>
       </c>
       <c r="K67" t="s">
         <v>19</v>
@@ -3909,13 +3925,34 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>265</v>
+        <v>126</v>
       </c>
       <c r="B68" t="s">
-        <v>266</v>
+        <v>145</v>
+      </c>
+      <c r="C68" t="s">
+        <v>417</v>
+      </c>
+      <c r="D68" t="s">
+        <v>418</v>
+      </c>
+      <c r="E68" t="s">
+        <v>419</v>
+      </c>
+      <c r="F68" t="s">
+        <v>16</v>
+      </c>
+      <c r="G68" t="s">
+        <v>16</v>
+      </c>
+      <c r="H68" t="s">
+        <v>420</v>
+      </c>
+      <c r="I68" t="s">
+        <v>16</v>
       </c>
       <c r="J68" t="s">
-        <v>267</v>
+        <v>421</v>
       </c>
       <c r="K68" t="s">
         <v>19</v>
@@ -3923,13 +3960,34 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>280</v>
+        <v>154</v>
       </c>
       <c r="B69" t="s">
-        <v>281</v>
+        <v>243</v>
+      </c>
+      <c r="C69" t="s">
+        <v>422</v>
+      </c>
+      <c r="D69" t="s">
+        <v>423</v>
+      </c>
+      <c r="E69" t="s">
+        <v>424</v>
+      </c>
+      <c r="F69" t="s">
+        <v>16</v>
+      </c>
+      <c r="G69" t="s">
+        <v>425</v>
+      </c>
+      <c r="H69" t="s">
+        <v>426</v>
+      </c>
+      <c r="I69" t="s">
+        <v>16</v>
       </c>
       <c r="J69" t="s">
-        <v>282</v>
+        <v>244</v>
       </c>
       <c r="K69" t="s">
         <v>19</v>
@@ -3937,35 +3995,42 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>283</v>
+        <v>114</v>
       </c>
       <c r="B70" t="s">
-        <v>284</v>
+        <v>228</v>
+      </c>
+      <c r="C70" t="s">
+        <v>427</v>
+      </c>
+      <c r="D70" t="s">
+        <v>428</v>
+      </c>
+      <c r="E70" t="s">
+        <v>429</v>
+      </c>
+      <c r="F70" t="s">
+        <v>430</v>
+      </c>
+      <c r="G70" t="s">
+        <v>16</v>
+      </c>
+      <c r="H70" t="s">
+        <v>231</v>
+      </c>
+      <c r="I70" t="s">
+        <v>16</v>
       </c>
       <c r="J70" t="s">
-        <v>285</v>
+        <v>431</v>
       </c>
       <c r="K70" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>350</v>
-      </c>
-      <c r="B71" t="s">
-        <v>351</v>
-      </c>
-      <c r="J71" t="s">
-        <v>352</v>
-      </c>
-      <c r="K71" t="s">
-        <v>19</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K71">
-    <sortCondition ref="C1:C71"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:K39">
+    <sortCondition ref="C1:C39"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
